--- a/Gabari/output/test/output.xlsx
+++ b/Gabari/output/test/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>مبدا</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>قابل عبور</t>
+  </si>
+  <si>
+    <t>بهرام - رباط کریم</t>
+  </si>
+  <si>
+    <t>گاباری 5.4</t>
+  </si>
+  <si>
+    <t>رباط کریم - جدایش</t>
+  </si>
+  <si>
+    <t>گاباری 4.9</t>
+  </si>
+  <si>
+    <t>جدایش - باغ یک</t>
+  </si>
+  <si>
+    <t>باغ یک - سواریان</t>
+  </si>
+  <si>
+    <t>سواریان - نورآباد</t>
+  </si>
+  <si>
+    <t>نورآباد - بندرامام خمینی</t>
+  </si>
+  <si>
+    <t>گاباری ۴.۷</t>
   </si>
 </sst>
 </file>
@@ -77,13 +104,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
     </font>
     <font>
       <name val="B Zar"/>
@@ -147,12 +204,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -167,8 +242,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -250,18 +325,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -304,6 +379,126 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n" s="4">
+        <v>304.138126514911</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n" s="6">
+        <v>35.35533905932738</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="F7" t="n" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n" s="8">
+        <v>335.4101966249685</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n" s="8">
+        <v>100.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Gabari/output/test/output.xlsx
+++ b/Gabari/output/test/output.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABBSH1200004073\IdeaProjects\GB\Gabari\output\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="ورودی واگن یا بار" r:id="rId3" sheetId="1"/>
-    <sheet name="خروجی" r:id="rId4" sheetId="2"/>
+    <sheet name="ورودی واگن یا بار" sheetId="1" r:id="rId1"/>
+    <sheet name="خروجی" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -102,79 +109,75 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
-    <font>
-      <sz val="11.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="B Zar"/>
-      <sz val="11.0"/>
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="D2CA9F"/>
+        <fgColor rgb="FFD2CA9F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,22 +186,19 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -206,300 +206,570 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" rightToLeft="true"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="2" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
+    <row r="3" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="1">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
+    <row r="4" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n" s="1">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
+      <c r="B4" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="1">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="B6" t="n" s="1">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="1">
-        <v>2500.0</v>
-      </c>
-      <c r="B7" t="n" s="1">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="1">
-        <v>3200.0</v>
-      </c>
-      <c r="B8" t="n" s="1">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>2500.0</v>
-      </c>
-      <c r="B9" t="n" s="1">
-        <v>0.0</v>
+    <row r="6" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="true"/>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="6" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="n" s="2">
-        <v>35.35533905932738</v>
-      </c>
-      <c r="E2" t="s" s="2">
+      <c r="D2" s="2">
+        <v>35.355339059327378</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="n" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="n" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="E3" t="s" s="3">
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="n" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="4">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="n" s="4">
-        <v>304.138126514911</v>
-      </c>
-      <c r="E4" t="s" s="4">
+      <c r="D4" s="4">
+        <v>304.13812651491099</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="n" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="5">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="n" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E5" t="s" s="5">
+      <c r="D5" s="5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="n" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="6">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="n" s="6">
-        <v>35.35533905932738</v>
-      </c>
-      <c r="E6" t="s" s="6">
+      <c r="D6" s="6">
+        <v>35.355339059327378</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="n" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="7">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="n" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="E7" t="s" s="7">
+      <c r="D7" s="7">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="n" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="8">
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="n" s="8">
-        <v>335.4101966249685</v>
-      </c>
-      <c r="E8" t="s" s="8">
+      <c r="D8" s="8">
+        <v>335.41019662496848</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="n" s="8">
-        <v>100.0</v>
+      <c r="F8" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Gabari/output/test/output.xlsx
+++ b/Gabari/output/test/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>مبدا</t>
   </si>
@@ -48,34 +48,67 @@
     <t>تیب گاباری</t>
   </si>
   <si>
-    <t>قابلیت عبور فضای مجاز</t>
+    <t>قابلیت عبور از فضای مجاز</t>
   </si>
   <si>
     <t>اندازه ورود به فضای آزاد</t>
   </si>
   <si>
-    <t>قابلیت عبور از فضای غیرمجاز</t>
-  </si>
-  <si>
-    <t>اندازه ورود به فضای غیرمجاز</t>
-  </si>
-  <si>
-    <t>سرخس - بهرام</t>
+    <t>قابلیت عبور از فضای آزاد</t>
+  </si>
+  <si>
+    <t>اندازه ورود به فضای سازه</t>
+  </si>
+  <si>
+    <t>قابلیت عبور از فضای سازه</t>
+  </si>
+  <si>
+    <t>سرخس - شهید مطهری</t>
+  </si>
+  <si>
+    <t>گاباری 5.4</t>
+  </si>
+  <si>
+    <t>غیر قابل عبور</t>
+  </si>
+  <si>
+    <t>قابل عبور</t>
+  </si>
+  <si>
+    <t>شهید مطهری - تربت</t>
   </si>
   <si>
     <t>گاباری 5.2</t>
   </si>
   <si>
-    <t>غیر قابل عبور</t>
-  </si>
-  <si>
-    <t>قابل عبور</t>
+    <t>تربت - بسطام</t>
+  </si>
+  <si>
+    <t>بسطام - شاهرود</t>
+  </si>
+  <si>
+    <t>گاباری 4.9</t>
+  </si>
+  <si>
+    <t>شاهرود - هفتخوان</t>
+  </si>
+  <si>
+    <t>هفتخوان - گرداب</t>
+  </si>
+  <si>
+    <t>گرداب - میاندره</t>
+  </si>
+  <si>
+    <t>میاندره - سمنان</t>
+  </si>
+  <si>
+    <t>سمنان - ورامین</t>
+  </si>
+  <si>
+    <t>ورامین - بهرام</t>
   </si>
   <si>
     <t>بهرام - باغ یک</t>
-  </si>
-  <si>
-    <t>گاباری 5.4</t>
   </si>
   <si>
     <t>باغ یک - سواریان</t>
@@ -95,13 +128,58 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
     </font>
     <font>
       <name val="B Zar"/>
@@ -185,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +281,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
@@ -312,6 +417,7 @@
     <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -333,105 +439,252 @@
       <c r="F1" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>35.35533905932738</v>
+        <v>25.0</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n" s="2">
-        <v>0.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n" s="3">
-        <v>25.0</v>
+        <v>35.35533905932738</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F3" t="n" s="3">
-        <v>0.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n" s="4">
-        <v>35.35533905932738</v>
+        <v>25.0</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="F4" t="n" s="4">
-        <v>0.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n" s="5">
-        <v>25.0</v>
+        <v>304.138126514911</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="F5" t="n" s="5">
-        <v>0.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n" s="7">
+        <v>35.35533905932738</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C9" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n" s="9">
+        <v>304.138126514911</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="D6" t="n" s="6">
+      <c r="C10" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="E10" t="s" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n" s="11">
+        <v>35.35533905932738</v>
+      </c>
+      <c r="E11" t="s" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D12" t="n" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n" s="13">
+        <v>35.35533905932738</v>
+      </c>
+      <c r="E13" t="s" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="E14" t="s" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n" s="15">
         <v>335.4101966249685</v>
       </c>
-      <c r="E6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="F6" t="n" s="6">
+      <c r="E15" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="F15" t="n" s="15">
         <v>100.0</v>
+      </c>
+      <c r="G15" t="s" s="15">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
